--- a/biology/Biochimie/Sune_Bergström/Sune_Bergström.xlsx
+++ b/biology/Biochimie/Sune_Bergström/Sune_Bergström.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sune_Bergstr%C3%B6m</t>
+          <t>Sune_Bergström</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sune Karl Bergström, né le 10 janvier 1916 à Stockholm et mort le 15 août 2004 dans la même ville, est un biochimiste suédois. Il a obtenu en 1977, un prix Lasker et en 1982 le prix Nobel de physiologie ou médecine, qu'il partage avec Bengt Samuelsson et John Vane, pour des travaux sur la prostaglandine.
 Il est le père de Svante Pääbo (né en 1955), lui-meme prix Nobel de physiologie et de médecine en 2022.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sune_Bergstr%C3%B6m</t>
+          <t>Sune_Bergström</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sune_Bergstr%C3%B6m</t>
+          <t>Sune_Bergström</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
